--- a/חישובי דלק-2.xlsx
+++ b/חישובי דלק-2.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>תאריך</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>על הסף. נשאר פחות מליטר</t>
+  </si>
+  <si>
+    <t>פזומט</t>
   </si>
 </sst>
 </file>
@@ -286,10 +289,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$44</c:f>
+              <c:f>Sheet1!$B$5:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>[$-1010000]d/m/yyyy;@</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>42767</c:v>
                 </c:pt>
@@ -409,16 +412,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>43279</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$5:$G$44</c:f>
+              <c:f>Sheet1!$G$5:$G$45</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>15.35</c:v>
                 </c:pt>
@@ -538,6 +544,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>14.64935064935065</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>14.662756598240469</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -554,11 +563,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="29773824"/>
-        <c:axId val="29775360"/>
+        <c:axId val="68833664"/>
+        <c:axId val="68835200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="29773824"/>
+        <c:axId val="68833664"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -568,14 +577,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="29775360"/>
+        <c:crossAx val="68835200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="29775360"/>
+        <c:axId val="68835200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -587,7 +596,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="29773824"/>
+        <c:crossAx val="68833664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -645,8 +654,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:H45" totalsRowCount="1" headerRowDxfId="3">
-  <autoFilter ref="B4:H44"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:H46" totalsRowCount="1" headerRowDxfId="3">
+  <autoFilter ref="B4:H45"/>
   <tableColumns count="7">
     <tableColumn id="1" name="תאריך" totalsRowLabel="Total" dataDxfId="2"/>
     <tableColumn id="2" name="ק&quot;מ"/>
@@ -917,7 +926,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -925,10 +934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:H45"/>
+  <dimension ref="B3:H46"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1717,7 +1726,7 @@
         <v>259</v>
       </c>
       <c r="G39" s="8">
-        <f>(C39-C38)/D39</f>
+        <f t="shared" ref="G39:G44" si="3">(C39-C38)/D39</f>
         <v>13.766871165644172</v>
       </c>
     </row>
@@ -1738,7 +1747,7 @@
         <v>244.2</v>
       </c>
       <c r="G40" s="8">
-        <f>(C40-C39)/D40</f>
+        <f t="shared" si="3"/>
         <v>12.454498179927198</v>
       </c>
     </row>
@@ -1759,7 +1768,7 @@
         <v>282.39999999999998</v>
       </c>
       <c r="G41" s="8">
-        <f>(C41-C40)/D41</f>
+        <f t="shared" si="3"/>
         <v>13.913043478260869</v>
       </c>
     </row>
@@ -1780,7 +1789,7 @@
         <v>241.6</v>
       </c>
       <c r="G42" s="8">
-        <f>(C42-C41)/D42</f>
+        <f t="shared" si="3"/>
         <v>14.572192513368984</v>
       </c>
     </row>
@@ -1801,7 +1810,7 @@
         <v>264</v>
       </c>
       <c r="G43" s="8">
-        <f>(C43-C42)/D43</f>
+        <f t="shared" si="3"/>
         <v>14.85</v>
       </c>
     </row>
@@ -1822,21 +1831,39 @@
         <v>254.3</v>
       </c>
       <c r="G44" s="8">
-        <f>(C44-C43)/D44</f>
+        <f t="shared" si="3"/>
         <v>14.64935064935065</v>
       </c>
     </row>
     <row r="45" spans="2:8">
-      <c r="B45" t="s">
+      <c r="B45" s="5">
+        <v>43289</v>
+      </c>
+      <c r="C45">
+        <v>28572</v>
+      </c>
+      <c r="D45">
+        <v>34.1</v>
+      </c>
+      <c r="G45" s="8">
+        <f>(C45-C44)/D45</f>
+        <v>14.662756598240469</v>
+      </c>
+      <c r="H45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" t="s">
         <v>17</v>
       </c>
-      <c r="F45">
+      <c r="F46">
         <f>SUBTOTAL(109,Table1[מחיר כולל])</f>
         <v>9428.9</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G46" s="9">
         <f>SUBTOTAL(101,Table1[ק"מ לליטר (מחושב)])</f>
-        <v>13.929079875166972</v>
+        <v>13.946974429388275</v>
       </c>
     </row>
   </sheetData>

--- a/חישובי דלק-2.xlsx
+++ b/חישובי דלק-2.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>תאריך</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>פזומט</t>
+  </si>
+  <si>
+    <t>פזומט 6.78 244.43</t>
   </si>
 </sst>
 </file>
@@ -289,10 +292,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$45</c:f>
+              <c:f>Sheet1!$B$5:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>[$-1010000]d/m/yyyy;@</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>42767</c:v>
                 </c:pt>
@@ -415,16 +418,22 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>43289</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43304</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$5:$G$45</c:f>
+              <c:f>Sheet1!$G$5:$G$48</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>15.35</c:v>
                 </c:pt>
@@ -547,6 +556,15 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>14.662756598240469</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14.272445820433438</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>13.194444444444445</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -563,11 +581,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="68833664"/>
-        <c:axId val="68835200"/>
+        <c:axId val="73573120"/>
+        <c:axId val="73574656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="68833664"/>
+        <c:axId val="73573120"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -577,14 +595,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68835200"/>
+        <c:crossAx val="73574656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="68835200"/>
+        <c:axId val="73574656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -596,7 +614,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68833664"/>
+        <c:crossAx val="73573120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -654,8 +672,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:H46" totalsRowCount="1" headerRowDxfId="3">
-  <autoFilter ref="B4:H45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:H49" totalsRowCount="1" headerRowDxfId="3">
+  <autoFilter ref="B4:H48"/>
   <tableColumns count="7">
     <tableColumn id="1" name="תאריך" totalsRowLabel="Total" dataDxfId="2"/>
     <tableColumn id="2" name="ק&quot;מ"/>
@@ -934,10 +952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:H46"/>
+  <dimension ref="B3:H49"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1854,16 +1872,58 @@
       </c>
     </row>
     <row r="46" spans="2:8">
-      <c r="B46" t="s">
+      <c r="B46" s="5">
+        <v>43304</v>
+      </c>
+      <c r="C46">
+        <v>29033</v>
+      </c>
+      <c r="D46">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="G46" s="8">
+        <f>(C46-C45)/D46</f>
+        <v>14.272445820433438</v>
+      </c>
+      <c r="H46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="5">
+        <v>43313</v>
+      </c>
+      <c r="C47">
+        <v>29508</v>
+      </c>
+      <c r="D47">
+        <v>36</v>
+      </c>
+      <c r="G47" s="8">
+        <f>(C47-C46)/D47</f>
+        <v>13.194444444444445</v>
+      </c>
+      <c r="H47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="G48" s="8" t="e">
+        <f>(C48-C47)/D48</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" t="s">
         <v>17</v>
       </c>
-      <c r="F46">
+      <c r="F49">
         <f>SUBTOTAL(109,Table1[מחיר כולל])</f>
         <v>9428.9</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G49" s="9" t="e">
         <f>SUBTOTAL(101,Table1[ק"מ לליטר (מחושב)])</f>
-        <v>13.946974429388275</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/חישובי דלק-2.xlsx
+++ b/חישובי דלק-2.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>תאריך</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>פזומט 6.78 244.43</t>
+  </si>
+  <si>
+    <t>6.78, 277</t>
   </si>
 </sst>
 </file>
@@ -425,6 +428,9 @@
                 <c:pt idx="42">
                   <c:v>43313</c:v>
                 </c:pt>
+                <c:pt idx="43">
+                  <c:v>43320</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -564,7 +570,7 @@
                   <c:v>13.194444444444445</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>13.382352941176471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -581,11 +587,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="73573120"/>
-        <c:axId val="73574656"/>
+        <c:axId val="147685760"/>
+        <c:axId val="147687296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="73573120"/>
+        <c:axId val="147685760"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -595,14 +601,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73574656"/>
+        <c:crossAx val="147687296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="73574656"/>
+        <c:axId val="147687296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -614,7 +620,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73573120"/>
+        <c:crossAx val="147685760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -944,7 +950,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -955,7 +961,7 @@
   <dimension ref="B3:H49"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1908,9 +1914,21 @@
       </c>
     </row>
     <row r="48" spans="2:8">
-      <c r="G48" s="8" t="e">
+      <c r="B48" s="5">
+        <v>43320</v>
+      </c>
+      <c r="C48">
+        <v>30054</v>
+      </c>
+      <c r="D48">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="G48" s="8">
         <f>(C48-C47)/D48</f>
-        <v>#DIV/0!</v>
+        <v>13.382352941176471</v>
+      </c>
+      <c r="H48" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="2:7">
@@ -1921,9 +1939,9 @@
         <f>SUBTOTAL(109,Table1[מחיר כולל])</f>
         <v>9428.9</v>
       </c>
-      <c r="G49" s="9" t="e">
+      <c r="G49" s="9">
         <f>SUBTOTAL(101,Table1[ק"מ לליטר (מחושב)])</f>
-        <v>#DIV/0!</v>
+        <v>13.924436245703946</v>
       </c>
     </row>
   </sheetData>

--- a/חישובי דלק-2.xlsx
+++ b/חישובי דלק-2.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>תאריך</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>6.78, 277</t>
+  </si>
+  <si>
+    <t>פזומט, 6.78, 283</t>
+  </si>
+  <si>
+    <t>פזומט 6.7 228.5</t>
   </si>
 </sst>
 </file>
@@ -295,10 +301,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$48</c:f>
+              <c:f>Sheet1!$B$5:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>[$-1010000]d/m/yyyy;@</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>42767</c:v>
                 </c:pt>
@@ -430,16 +436,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>43320</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$5:$G$48</c:f>
+              <c:f>Sheet1!$G$5:$G$49</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>15.35</c:v>
                 </c:pt>
@@ -571,6 +580,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>13.382352941176471</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14.700239808153476</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -587,11 +599,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="147685760"/>
-        <c:axId val="147687296"/>
+        <c:axId val="96392320"/>
+        <c:axId val="96393856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="147685760"/>
+        <c:axId val="96392320"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -601,14 +613,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147687296"/>
+        <c:crossAx val="96393856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="147687296"/>
+        <c:axId val="96393856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -620,7 +632,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147685760"/>
+        <c:crossAx val="96392320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -678,8 +690,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:H49" totalsRowCount="1" headerRowDxfId="3">
-  <autoFilter ref="B4:H48"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:H50" totalsRowCount="1" headerRowDxfId="3">
+  <autoFilter ref="B4:H49"/>
   <tableColumns count="7">
     <tableColumn id="1" name="תאריך" totalsRowLabel="Total" dataDxfId="2"/>
     <tableColumn id="2" name="ק&quot;מ"/>
@@ -950,7 +962,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -958,10 +970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:H49"/>
+  <dimension ref="B3:H50"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1874,7 +1886,7 @@
         <v>14.662756598240469</v>
       </c>
       <c r="H45" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="2:8">
@@ -1931,17 +1943,35 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="2:7">
-      <c r="B49" t="s">
+    <row r="49" spans="2:8">
+      <c r="B49" s="5">
+        <v>43331</v>
+      </c>
+      <c r="C49">
+        <v>30667</v>
+      </c>
+      <c r="D49">
+        <v>41.7</v>
+      </c>
+      <c r="G49" s="8">
+        <f>(C49-C48)/D49</f>
+        <v>14.700239808153476</v>
+      </c>
+      <c r="H49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" t="s">
         <v>17</v>
       </c>
-      <c r="F49">
+      <c r="F50">
         <f>SUBTOTAL(109,Table1[מחיר כולל])</f>
         <v>9428.9</v>
       </c>
-      <c r="G49" s="9">
+      <c r="G50" s="9">
         <f>SUBTOTAL(101,Table1[ק"מ לליטר (מחושב)])</f>
-        <v>13.924436245703946</v>
+        <v>13.941676324869491</v>
       </c>
     </row>
   </sheetData>

--- a/חישובי דלק-2.xlsx
+++ b/חישובי דלק-2.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>תאריך</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>פזומט 6.7 228.5</t>
+  </si>
+  <si>
+    <t>פזומט 248.8 6.78</t>
   </si>
 </sst>
 </file>
@@ -301,10 +304,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$49</c:f>
+              <c:f>Sheet1!$B$5:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>[$-1010000]d/m/yyyy;@</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>42767</c:v>
                 </c:pt>
@@ -439,16 +442,19 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>43331</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$5:$G$49</c:f>
+              <c:f>Sheet1!$G$5:$G$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>15.35</c:v>
                 </c:pt>
@@ -583,6 +589,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>14.700239808153476</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15.149863760217983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -599,11 +608,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="96392320"/>
-        <c:axId val="96393856"/>
+        <c:axId val="77817344"/>
+        <c:axId val="77818880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="96392320"/>
+        <c:axId val="77817344"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -613,14 +622,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96393856"/>
+        <c:crossAx val="77818880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="96393856"/>
+        <c:axId val="77818880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -632,7 +641,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96392320"/>
+        <c:crossAx val="77817344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -690,8 +699,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:H50" totalsRowCount="1" headerRowDxfId="3">
-  <autoFilter ref="B4:H49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:H51" totalsRowCount="1" headerRowDxfId="3">
+  <autoFilter ref="B4:H50"/>
   <tableColumns count="7">
     <tableColumn id="1" name="תאריך" totalsRowLabel="Total" dataDxfId="2"/>
     <tableColumn id="2" name="ק&quot;מ"/>
@@ -962,7 +971,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -970,10 +979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:H50"/>
+  <dimension ref="B3:H51"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1962,16 +1971,34 @@
       </c>
     </row>
     <row r="50" spans="2:8">
-      <c r="B50" t="s">
+      <c r="B50" s="5">
+        <v>43341</v>
+      </c>
+      <c r="C50">
+        <v>31223</v>
+      </c>
+      <c r="D50">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="G50" s="8">
+        <f>(C50-C49)/D50</f>
+        <v>15.149863760217983</v>
+      </c>
+      <c r="H50" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" t="s">
         <v>17</v>
       </c>
-      <c r="F50">
+      <c r="F51">
         <f>SUBTOTAL(109,Table1[מחיר כולל])</f>
         <v>9428.9</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G51" s="9">
         <f>SUBTOTAL(101,Table1[ק"מ לליטר (מחושב)])</f>
-        <v>13.941676324869491</v>
+        <v>13.967941269116196</v>
       </c>
     </row>
   </sheetData>

--- a/חישובי דלק-2.xlsx
+++ b/חישובי דלק-2.xlsx
@@ -93,33 +93,34 @@
     <t>פזומט</t>
   </si>
   <si>
-    <t>פזומט 6.78 244.43</t>
-  </si>
-  <si>
-    <t>6.78, 277</t>
-  </si>
-  <si>
-    <t>פזומט, 6.78, 283</t>
-  </si>
-  <si>
     <t>פזומט 6.7 228.5</t>
   </si>
   <si>
-    <t>פזומט 248.8 6.78</t>
+    <t>?</t>
+  </si>
+  <si>
+    <t>הנחה</t>
+  </si>
+  <si>
+    <t>בערך 38 ליטר. לפי 6.8. (הקבלה אבדה)</t>
+  </si>
+  <si>
+    <t>מחיר לחודש אחרי הנחה 976</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_ &quot;₪&quot;\ * #,##0_ ;_ &quot;₪&quot;\ * \-#,##0_ ;_ &quot;₪&quot;\ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;₪&quot;\ * #,##0.00_ ;_ &quot;₪&quot;\ * \-#,##0.00_ ;_ &quot;₪&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="&quot;₪&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +142,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -181,7 +191,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -200,6 +210,11 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="4"/>
@@ -209,7 +224,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
@@ -218,6 +233,15 @@
           <bgColor theme="9" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;₪&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;₪&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;₪&quot;\ #,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -290,7 +314,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$4</c:f>
+              <c:f>Sheet1!$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -303,158 +327,163 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$5:$B$50</c:f>
-              <c:numCache>
-                <c:formatCode>[$-1010000]d/m/yyyy;@</c:formatCode>
-                <c:ptCount val="46"/>
+            <c:strRef>
+              <c:f>Sheet1!$B$5:$B$52</c:f>
+              <c:strCache>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
-                  <c:v>42767</c:v>
+                  <c:v>1/2/2017</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42778</c:v>
+                  <c:v>12/2/2017</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42789</c:v>
+                  <c:v>23/2/2017</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42799</c:v>
+                  <c:v>5/3/2017</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42810</c:v>
+                  <c:v>16/3/2017</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42821</c:v>
+                  <c:v>27/3/2017</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42831</c:v>
+                  <c:v>6/4/2017</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42848</c:v>
+                  <c:v>23/4/2017</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42858</c:v>
+                  <c:v>3/5/2017</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42872</c:v>
+                  <c:v>17/5/2017</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42883</c:v>
+                  <c:v>28/5/2017</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42863</c:v>
+                  <c:v>8/5/2017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42907</c:v>
+                  <c:v>21/6/2017</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42921</c:v>
+                  <c:v>5/7/2017</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42935</c:v>
+                  <c:v>19/7/2017</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42947</c:v>
+                  <c:v>31/7/2017</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42960</c:v>
+                  <c:v>13/8/2017</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42963</c:v>
+                  <c:v>16/8/2017</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42975</c:v>
+                  <c:v>28/8/2017</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42989</c:v>
+                  <c:v>11/9/2017</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43006</c:v>
+                  <c:v>28/9/2017</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43018</c:v>
+                  <c:v>10/10/2017</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43034</c:v>
+                  <c:v>26/10/2017</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43046</c:v>
+                  <c:v>7/11/2017</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43060</c:v>
+                  <c:v>21/11/2017</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43073</c:v>
+                  <c:v>4/12/2017</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43088</c:v>
+                  <c:v>19/12/2017</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43097</c:v>
+                  <c:v>28/12/2017</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43110</c:v>
+                  <c:v>10/1/2018</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43123</c:v>
+                  <c:v>23/1/2018</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>43135</c:v>
+                  <c:v>4/2/2018</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>43145</c:v>
+                  <c:v>14/2/2018</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>43159</c:v>
+                  <c:v>28/2/2018</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43177</c:v>
+                  <c:v>18/3/2018</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>43193</c:v>
+                  <c:v>3/4/2018</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>43212</c:v>
+                  <c:v>22/4/2018</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>43229</c:v>
+                  <c:v>9/5/2018</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>43244</c:v>
+                  <c:v>24/5/2018</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>43262</c:v>
+                  <c:v>11/6/2018</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>43279</c:v>
+                  <c:v>28/6/2018</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>43289</c:v>
+                  <c:v>8/7/2018</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>43304</c:v>
+                  <c:v>23/7/2018</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43313</c:v>
+                  <c:v>1/8/2018</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43320</c:v>
+                  <c:v>8/8/2018</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>43331</c:v>
+                  <c:v>19/8/2018</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>43341</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>29/8/2018</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>?</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4/10/2018</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$5:$G$50</c:f>
+              <c:f>Sheet1!$H$5:$H$52</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>15.35</c:v>
                 </c:pt>
@@ -592,6 +621,12 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>15.149863760217983</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -608,11 +643,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="77817344"/>
-        <c:axId val="77818880"/>
+        <c:axId val="76764672"/>
+        <c:axId val="76765824"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="77817344"/>
+      <c:catAx>
+        <c:axId val="76764672"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -622,14 +657,15 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77818880"/>
+        <c:crossAx val="76765824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="77818880"/>
+        <c:axId val="76765824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -641,7 +677,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77817344"/>
+        <c:crossAx val="76764672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -667,13 +703,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>171449</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>171449</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>180976</xdr:rowOff>
@@ -699,15 +735,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:H51" totalsRowCount="1" headerRowDxfId="3">
-  <autoFilter ref="B4:H50"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="תאריך" totalsRowLabel="Total" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:I53" totalsRowCount="1" headerRowDxfId="6">
+  <autoFilter ref="B4:I52"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="תאריך" totalsRowLabel="Total" dataDxfId="5"/>
     <tableColumn id="2" name="ק&quot;מ"/>
     <tableColumn id="3" name="כמות"/>
     <tableColumn id="4" name="מחיר"/>
-    <tableColumn id="5" name="מחיר כולל" totalsRowFunction="sum"/>
-    <tableColumn id="6" name="ק&quot;מ לליטר (מחושב)" totalsRowFunction="average" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="5" name="מחיר כולל" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="8" name="הנחה" dataDxfId="3">
+      <calculatedColumnFormula>(Table1[[#This Row],[כמות]]*0.5)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="ק&quot;מ לליטר (מחושב)" totalsRowFunction="average" dataDxfId="4" totalsRowDxfId="0">
       <calculatedColumnFormula>(C5-C4)/D5</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" name="Column1"/>
@@ -971,7 +1010,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -979,10 +1018,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:H51"/>
+  <dimension ref="B3:I53"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -991,16 +1030,16 @@
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1"/>
-    <col min="7" max="7" width="19" style="6" customWidth="1"/>
-    <col min="8" max="8" width="39.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
     <col min="9" max="9" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:9">
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="2:8" s="1" customFormat="1">
+    <row r="4" spans="2:9" s="1" customFormat="1">
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1013,17 +1052,20 @@
       <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>42767</v>
       </c>
@@ -1036,14 +1078,15 @@
       <c r="E5">
         <v>5.85</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="11">
         <v>251.09</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="11"/>
+      <c r="H5" s="8">
         <v>15.35</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>42778</v>
       </c>
@@ -1056,15 +1099,16 @@
       <c r="E6">
         <v>6.35</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="11">
         <v>272.51</v>
       </c>
-      <c r="G6" s="8">
-        <f t="shared" ref="G6:G14" si="0">(C6-C5)/D6</f>
+      <c r="G6" s="11"/>
+      <c r="H6" s="8">
+        <f t="shared" ref="H6:H14" si="0">(C6-C5)/D6</f>
         <v>14.537403868562112</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:9">
       <c r="B7" s="5">
         <v>42789</v>
       </c>
@@ -1077,15 +1121,16 @@
       <c r="E7">
         <v>5.85</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="11">
         <v>209.5</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="11"/>
+      <c r="H7" s="8">
         <f t="shared" si="0"/>
         <v>13.519553072625699</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:9">
       <c r="B8" s="5">
         <v>42799</v>
       </c>
@@ -1098,15 +1143,16 @@
       <c r="E8">
         <v>5.8</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="11">
         <v>231</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="11"/>
+      <c r="H8" s="8">
         <f t="shared" si="0"/>
         <v>15.86466165413534</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:9">
       <c r="B9" s="5">
         <v>42810</v>
       </c>
@@ -1119,15 +1165,16 @@
       <c r="E9">
         <v>5.8</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="11">
         <v>254</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="11"/>
+      <c r="H9" s="8">
         <f t="shared" si="0"/>
         <v>14.200913242009133</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:9">
       <c r="B10" s="5">
         <v>42821</v>
       </c>
@@ -1140,15 +1187,16 @@
       <c r="E10">
         <v>5.8</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="11">
         <v>258</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="11"/>
+      <c r="H10" s="8">
         <f t="shared" si="0"/>
         <v>14.533333333333333</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:9">
       <c r="B11" s="5">
         <v>42831</v>
       </c>
@@ -1161,15 +1209,16 @@
       <c r="E11">
         <v>5.66</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="11">
         <v>244.6</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="11"/>
+      <c r="H11" s="8">
         <f t="shared" si="0"/>
         <v>15.532407407407407</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:9">
       <c r="B12" s="5">
         <v>42848</v>
       </c>
@@ -1182,15 +1231,16 @@
       <c r="E12">
         <v>5.66</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="11">
         <v>248.5</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="11"/>
+      <c r="H12" s="8">
         <f t="shared" si="0"/>
         <v>14.4874715261959</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:9">
       <c r="B13" s="5">
         <v>42858</v>
       </c>
@@ -1203,15 +1253,16 @@
       <c r="E13">
         <v>5.72</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="11">
         <v>213.5</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="11"/>
+      <c r="H13" s="8">
         <f t="shared" si="0"/>
         <v>14.369973190348526</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:9">
       <c r="B14" s="5">
         <v>42872</v>
       </c>
@@ -1225,19 +1276,20 @@
       <c r="E14">
         <v>5.72</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="11">
         <f>238+183</f>
         <v>421</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="11"/>
+      <c r="H14" s="8">
         <f t="shared" si="0"/>
         <v>15.632823365785812</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:9">
       <c r="B15" s="5">
         <v>42883</v>
       </c>
@@ -1250,15 +1302,16 @@
       <c r="E15">
         <v>5.72</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="11">
         <v>236</v>
       </c>
-      <c r="G15" s="8">
-        <f t="shared" ref="G15:G32" si="1">(C15-C14)/D15</f>
+      <c r="G15" s="11"/>
+      <c r="H15" s="8">
+        <f t="shared" ref="H15:H32" si="1">(C15-C14)/D15</f>
         <v>16.125907990314772</v>
       </c>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:9">
       <c r="B16" s="5">
         <v>42863</v>
       </c>
@@ -1271,16 +1324,17 @@
       <c r="E16">
         <v>5.99</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="11">
         <f>(191-8)</f>
         <v>183</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="11"/>
+      <c r="H16" s="8">
         <f t="shared" si="1"/>
         <v>14.96875</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:9">
       <c r="B17" s="5">
         <v>42907</v>
       </c>
@@ -1293,15 +1347,16 @@
       <c r="E17">
         <v>5.99</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="11">
         <v>220.2</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="11"/>
+      <c r="H17" s="8">
         <f t="shared" si="1"/>
         <v>13.804347826086957</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:9">
       <c r="B18" s="5">
         <v>42921</v>
       </c>
@@ -1314,15 +1369,16 @@
       <c r="E18">
         <v>5.76</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="11">
         <v>222.6</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="11"/>
+      <c r="H18" s="8">
         <f t="shared" si="1"/>
         <v>13.652849740932641</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:9">
       <c r="B19" s="5">
         <v>42935</v>
       </c>
@@ -1335,15 +1391,16 @@
       <c r="E19">
         <v>5.76</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="11">
         <v>214</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="11"/>
+      <c r="H19" s="8">
         <f t="shared" si="1"/>
         <v>12.956989247311826</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:9">
       <c r="B20" s="5">
         <v>42947</v>
       </c>
@@ -1356,15 +1413,16 @@
       <c r="E20">
         <v>5.76</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="11">
         <v>182.8</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="11"/>
+      <c r="H20" s="8">
         <f t="shared" si="1"/>
         <v>13.470031545741325</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:9">
       <c r="B21" s="5">
         <v>42960</v>
       </c>
@@ -1377,15 +1435,16 @@
       <c r="E21">
         <v>5.94</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="11">
         <v>243.8</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="11"/>
+      <c r="H21" s="8">
         <f t="shared" si="1"/>
         <v>13.951219512195122</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:9">
       <c r="B22" s="5">
         <v>42963</v>
       </c>
@@ -1398,15 +1457,16 @@
       <c r="E22">
         <v>5.94</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="11">
         <v>206</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="11"/>
+      <c r="H22" s="8">
         <f t="shared" si="1"/>
         <v>13.544668587896252</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:9">
       <c r="B23" s="5">
         <v>42975</v>
       </c>
@@ -1419,15 +1479,16 @@
       <c r="E23">
         <v>5.94</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="11">
         <v>250</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="11"/>
+      <c r="H23" s="8">
         <f t="shared" si="1"/>
         <v>12.779097387173396</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:9">
       <c r="B24" s="5">
         <v>42989</v>
       </c>
@@ -1440,15 +1501,16 @@
       <c r="E24">
         <v>6</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="11">
         <v>221</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="11"/>
+      <c r="H24" s="8">
         <f t="shared" si="1"/>
         <v>13.631436314363144</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:9">
       <c r="B25" s="5">
         <v>43006</v>
       </c>
@@ -1461,18 +1523,19 @@
       <c r="E25">
         <v>6</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="11">
         <v>251</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="11"/>
+      <c r="H25" s="8">
         <f t="shared" si="1"/>
         <v>12.80952380952381</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:9">
       <c r="B26" s="5">
         <v>43018</v>
       </c>
@@ -1485,15 +1548,16 @@
       <c r="E26">
         <v>6.06</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="11">
         <v>203.6</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="11"/>
+      <c r="H26" s="8">
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:9">
       <c r="B27" s="5">
         <v>43034</v>
       </c>
@@ -1506,15 +1570,16 @@
       <c r="E27">
         <v>6.06</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="11">
         <v>185.5</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="11"/>
+      <c r="H27" s="8">
         <f t="shared" si="1"/>
         <v>12.679738562091503</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:9">
       <c r="B28" s="5">
         <v>43046</v>
       </c>
@@ -1527,15 +1592,16 @@
       <c r="E28">
         <v>6.06</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="11">
         <v>182</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="11"/>
+      <c r="H28" s="8">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:9">
       <c r="B29" s="5">
         <v>43060</v>
       </c>
@@ -1548,15 +1614,16 @@
       <c r="E29">
         <v>6.06</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="11">
         <v>189</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="11"/>
+      <c r="H29" s="8">
         <f t="shared" si="1"/>
         <v>13.814102564102564</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:9">
       <c r="B30" s="5">
         <v>43073</v>
       </c>
@@ -1569,15 +1636,16 @@
       <c r="E30">
         <v>6.14</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="11">
         <v>214.7</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="11"/>
+      <c r="H30" s="8">
         <f t="shared" si="1"/>
         <v>13.6</v>
       </c>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:9">
       <c r="B31" s="5">
         <v>43088</v>
       </c>
@@ -1590,15 +1658,16 @@
       <c r="E31">
         <v>6.14</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="11">
         <v>256</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="11"/>
+      <c r="H31" s="8">
         <f t="shared" si="1"/>
         <v>13.110047846889954</v>
       </c>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="2:9">
       <c r="B32" s="5">
         <v>43097</v>
       </c>
@@ -1611,18 +1680,19 @@
       <c r="E32">
         <v>6.14</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="11">
         <v>192</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="11"/>
+      <c r="H32" s="8">
         <f t="shared" si="1"/>
         <v>10.987261146496817</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:9">
       <c r="B33" s="5">
         <v>43110</v>
       </c>
@@ -1635,18 +1705,19 @@
       <c r="E33">
         <v>6.19</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="11">
         <v>205</v>
       </c>
-      <c r="G33" s="8">
-        <f t="shared" ref="G33:G38" si="2">(C33-C32)/D33</f>
+      <c r="G33" s="11"/>
+      <c r="H33" s="8">
+        <f t="shared" ref="H33:H38" si="2">(C33-C32)/D33</f>
         <v>17.160120845921451</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:9">
       <c r="B34" s="5">
         <v>43123</v>
       </c>
@@ -1659,15 +1730,16 @@
       <c r="E34">
         <v>6.19</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="11">
         <v>208</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="11"/>
+      <c r="H34" s="8">
         <f t="shared" si="2"/>
         <v>13.273809523809524</v>
       </c>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:9">
       <c r="B35" s="5">
         <v>43135</v>
       </c>
@@ -1680,15 +1752,16 @@
       <c r="E35">
         <v>6.3</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="11">
         <v>263</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="11"/>
+      <c r="H35" s="8">
         <f t="shared" si="2"/>
         <v>13.492822966507179</v>
       </c>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="2:9">
       <c r="B36" s="5">
         <v>43145</v>
       </c>
@@ -1701,15 +1774,16 @@
       <c r="E36">
         <v>6.3</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="11">
         <v>233</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G36" s="11"/>
+      <c r="H36" s="8">
         <f t="shared" si="2"/>
         <v>13.577235772357724</v>
       </c>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:9">
       <c r="B37" s="5">
         <v>43159</v>
       </c>
@@ -1722,15 +1796,16 @@
       <c r="E37">
         <v>6.3</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="11">
         <v>244</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G37" s="11"/>
+      <c r="H37" s="8">
         <f t="shared" si="2"/>
         <v>13.242127000516261</v>
       </c>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="2:9">
       <c r="B38" s="5">
         <v>43177</v>
       </c>
@@ -1743,18 +1818,19 @@
       <c r="E38">
         <v>6.18</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="11">
         <v>273.5</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G38" s="11"/>
+      <c r="H38" s="8">
         <f t="shared" si="2"/>
         <v>11.796610169491526</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="2:9">
       <c r="B39" s="5">
         <v>43193</v>
       </c>
@@ -1767,15 +1843,16 @@
       <c r="E39">
         <v>6.35</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="11">
         <v>259</v>
       </c>
-      <c r="G39" s="8">
-        <f t="shared" ref="G39:G44" si="3">(C39-C38)/D39</f>
+      <c r="G39" s="11"/>
+      <c r="H39" s="8">
+        <f t="shared" ref="H39:H44" si="3">(C39-C38)/D39</f>
         <v>13.766871165644172</v>
       </c>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="2:9">
       <c r="B40" s="5">
         <v>43212</v>
       </c>
@@ -1788,15 +1865,16 @@
       <c r="E40">
         <v>6.35</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="11">
         <v>244.2</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G40" s="11"/>
+      <c r="H40" s="8">
         <f t="shared" si="3"/>
         <v>12.454498179927198</v>
       </c>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="2:9">
       <c r="B41" s="5">
         <v>43229</v>
       </c>
@@ -1809,15 +1887,16 @@
       <c r="E41">
         <v>6.46</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="11">
         <v>282.39999999999998</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G41" s="11"/>
+      <c r="H41" s="8">
         <f t="shared" si="3"/>
         <v>13.913043478260869</v>
       </c>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" spans="2:9">
       <c r="B42" s="5">
         <v>43244</v>
       </c>
@@ -1830,15 +1909,16 @@
       <c r="E42">
         <v>6.46</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="11">
         <v>241.6</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G42" s="11"/>
+      <c r="H42" s="8">
         <f t="shared" si="3"/>
         <v>14.572192513368984</v>
       </c>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="2:9">
       <c r="B43" s="5">
         <v>43262</v>
       </c>
@@ -1851,15 +1931,16 @@
       <c r="E43">
         <v>6.6</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="11">
         <v>264</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G43" s="11"/>
+      <c r="H43" s="8">
         <f t="shared" si="3"/>
         <v>14.85</v>
       </c>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="2:9">
       <c r="B44" s="5">
         <v>43279</v>
       </c>
@@ -1870,17 +1951,18 @@
         <v>38.5</v>
       </c>
       <c r="E44">
-        <v>606</v>
-      </c>
-      <c r="F44">
+        <v>6.6</v>
+      </c>
+      <c r="F44" s="11">
         <v>254.3</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G44" s="11"/>
+      <c r="H44" s="8">
         <f t="shared" si="3"/>
         <v>14.64935064935065</v>
       </c>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" spans="2:9">
       <c r="B45" s="5">
         <v>43289</v>
       </c>
@@ -1890,15 +1972,25 @@
       <c r="D45">
         <v>34.1</v>
       </c>
-      <c r="G45" s="8">
-        <f>(C45-C44)/D45</f>
+      <c r="E45">
+        <v>6.7</v>
+      </c>
+      <c r="F45" s="11">
+        <v>228.5</v>
+      </c>
+      <c r="G45" s="11">
+        <f>(Table1[[#This Row],[כמות]]*0.5)</f>
+        <v>17.05</v>
+      </c>
+      <c r="H45" s="8">
+        <f t="shared" ref="H45:H50" si="4">(C45-C44)/D45</f>
         <v>14.662756598240469</v>
       </c>
-      <c r="H45" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8">
+      <c r="I45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
       <c r="B46" s="5">
         <v>43304</v>
       </c>
@@ -1908,15 +2000,26 @@
       <c r="D46">
         <v>32.299999999999997</v>
       </c>
-      <c r="G46" s="8">
-        <f>(C46-C45)/D46</f>
+      <c r="E46">
+        <v>6.7</v>
+      </c>
+      <c r="F46" s="11">
+        <f>6.7*32.3</f>
+        <v>216.41</v>
+      </c>
+      <c r="G46" s="11">
+        <f>(Table1[[#This Row],[כמות]]*0.5)</f>
+        <v>16.149999999999999</v>
+      </c>
+      <c r="H46" s="8">
+        <f t="shared" si="4"/>
         <v>14.272445820433438</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="2:8">
+    <row r="47" spans="2:9">
       <c r="B47" s="5">
         <v>43313</v>
       </c>
@@ -1926,15 +2029,22 @@
       <c r="D47">
         <v>36</v>
       </c>
-      <c r="G47" s="8">
-        <f>(C47-C46)/D47</f>
+      <c r="E47">
+        <v>6.78</v>
+      </c>
+      <c r="F47" s="11">
+        <v>244.43</v>
+      </c>
+      <c r="G47" s="11">
+        <f>(Table1[[#This Row],[כמות]]*0.5)</f>
+        <v>18</v>
+      </c>
+      <c r="H47" s="8">
+        <f t="shared" si="4"/>
         <v>13.194444444444445</v>
       </c>
-      <c r="H47" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8">
+    </row>
+    <row r="48" spans="2:9">
       <c r="B48" s="5">
         <v>43320</v>
       </c>
@@ -1944,15 +2054,22 @@
       <c r="D48">
         <v>40.799999999999997</v>
       </c>
-      <c r="G48" s="8">
-        <f>(C48-C47)/D48</f>
+      <c r="E48">
+        <v>6.78</v>
+      </c>
+      <c r="F48" s="11">
+        <v>277</v>
+      </c>
+      <c r="G48" s="11">
+        <f>(Table1[[#This Row],[כמות]]*0.5)</f>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="H48" s="8">
+        <f t="shared" si="4"/>
         <v>13.382352941176471</v>
       </c>
-      <c r="H48" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8">
+    </row>
+    <row r="49" spans="2:9">
       <c r="B49" s="5">
         <v>43331</v>
       </c>
@@ -1962,15 +2079,22 @@
       <c r="D49">
         <v>41.7</v>
       </c>
-      <c r="G49" s="8">
-        <f>(C49-C48)/D49</f>
+      <c r="E49">
+        <v>6.78</v>
+      </c>
+      <c r="F49" s="11">
+        <v>283</v>
+      </c>
+      <c r="G49" s="11">
+        <f>(Table1[[#This Row],[כמות]]*0.5)</f>
+        <v>20.85</v>
+      </c>
+      <c r="H49" s="8">
+        <f t="shared" si="4"/>
         <v>14.700239808153476</v>
       </c>
-      <c r="H49" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8">
+    </row>
+    <row r="50" spans="2:9">
       <c r="B50" s="5">
         <v>43341</v>
       </c>
@@ -1980,33 +2104,83 @@
       <c r="D50">
         <v>36.700000000000003</v>
       </c>
-      <c r="G50" s="8">
-        <f>(C50-C49)/D50</f>
+      <c r="E50">
+        <v>6.78</v>
+      </c>
+      <c r="F50" s="11">
+        <v>248.8</v>
+      </c>
+      <c r="G50" s="11">
+        <f>(Table1[[#This Row],[כמות]]*0.5)</f>
+        <v>18.350000000000001</v>
+      </c>
+      <c r="H50" s="8">
+        <f t="shared" si="4"/>
         <v>15.149863760217983</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="2:8">
-      <c r="B51" t="s">
+    <row r="51" spans="2:9">
+      <c r="B51" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G51" s="11">
+        <f>(Table1[[#This Row],[כמות]]*0.5)</f>
+        <v>0</v>
+      </c>
+      <c r="H51" s="10">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="B52" s="5">
+        <v>43377</v>
+      </c>
+      <c r="C52">
+        <v>32199</v>
+      </c>
+      <c r="D52">
+        <v>37</v>
+      </c>
+      <c r="E52">
+        <v>6.8</v>
+      </c>
+      <c r="F52" s="11">
+        <v>251.6</v>
+      </c>
+      <c r="G52" s="11">
+        <f>(Table1[[#This Row],[כמות]]*0.5)</f>
+        <v>18.5</v>
+      </c>
+      <c r="H52" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="B53" t="s">
         <v>17</v>
       </c>
-      <c r="F51">
+      <c r="F53" s="11">
         <f>SUBTOTAL(109,Table1[מחיר כולל])</f>
-        <v>9428.9</v>
-      </c>
-      <c r="G51" s="9">
+        <v>11178.64</v>
+      </c>
+      <c r="G53"/>
+      <c r="H53" s="9">
         <f>SUBTOTAL(101,Table1[ק"מ לליטר (מחושב)])</f>
-        <v>13.967941269116196</v>
+        <v>13.969277049569689</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/חישובי דלק-2.xlsx
+++ b/חישובי דלק-2.xlsx
@@ -191,7 +191,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -215,6 +215,7 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="4"/>
@@ -238,12 +239,6 @@
       <numFmt numFmtId="165" formatCode="&quot;₪&quot;\ #,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;₪&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;₪&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="solid">
@@ -251,6 +246,12 @@
           <bgColor theme="9" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;₪&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;₪&quot;\ #,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
@@ -328,9 +329,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$5:$B$52</c:f>
+              <c:f>Sheet1!$B$5:$B$53</c:f>
               <c:strCache>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>1/2/2017</c:v>
                 </c:pt>
@@ -474,16 +475,19 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>4/10/2018</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>18/10/2018</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$5:$H$52</c:f>
+              <c:f>Sheet1!$H$5:$H$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>15.35</c:v>
                 </c:pt>
@@ -627,6 +631,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>14.595375722543352</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -643,11 +650,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="76764672"/>
-        <c:axId val="76765824"/>
+        <c:axId val="67789568"/>
+        <c:axId val="67791104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76764672"/>
+        <c:axId val="67789568"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -657,7 +664,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76765824"/>
+        <c:crossAx val="67791104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -665,7 +672,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76765824"/>
+        <c:axId val="67791104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -677,7 +684,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76764672"/>
+        <c:crossAx val="67789568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -735,18 +742,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:I53" totalsRowCount="1" headerRowDxfId="6">
-  <autoFilter ref="B4:I52"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:I54" totalsRowCount="1" headerRowDxfId="6">
+  <autoFilter ref="B4:I53"/>
   <tableColumns count="8">
     <tableColumn id="1" name="תאריך" totalsRowLabel="Total" dataDxfId="5"/>
     <tableColumn id="2" name="ק&quot;מ"/>
     <tableColumn id="3" name="כמות"/>
     <tableColumn id="4" name="מחיר"/>
-    <tableColumn id="5" name="מחיר כולל" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="5" name="מחיר כולל" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="1"/>
     <tableColumn id="8" name="הנחה" dataDxfId="3">
       <calculatedColumnFormula>(Table1[[#This Row],[כמות]]*0.5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="ק&quot;מ לליטר (מחושב)" totalsRowFunction="average" dataDxfId="4" totalsRowDxfId="0">
+    <tableColumn id="6" name="ק&quot;מ לליטר (מחושב)" totalsRowFunction="average" dataDxfId="2" totalsRowDxfId="0">
       <calculatedColumnFormula>(C5-C4)/D5</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" name="Column1"/>
@@ -1010,7 +1017,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1018,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I53"/>
+  <dimension ref="B3:I54"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2162,17 +2169,42 @@
       </c>
     </row>
     <row r="53" spans="2:9">
-      <c r="B53" t="s">
+      <c r="B53" s="5">
+        <v>43391</v>
+      </c>
+      <c r="C53">
+        <v>32704</v>
+      </c>
+      <c r="D53">
+        <v>34.6</v>
+      </c>
+      <c r="E53">
+        <v>6.8</v>
+      </c>
+      <c r="F53" s="11">
+        <v>235.12</v>
+      </c>
+      <c r="G53" s="13">
+        <f>(Table1[[#This Row],[כמות]]*0.5)</f>
+        <v>17.3</v>
+      </c>
+      <c r="H53" s="9">
+        <f>(C53-C52)/D53</f>
+        <v>14.595375722543352</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="11">
+      <c r="F54" s="11">
         <f>SUBTOTAL(109,Table1[מחיר כולל])</f>
-        <v>11178.64</v>
-      </c>
-      <c r="G53"/>
-      <c r="H53" s="9">
+        <v>11413.76</v>
+      </c>
+      <c r="G54"/>
+      <c r="H54" s="9">
         <f>SUBTOTAL(101,Table1[ק"מ לליטר (מחושב)])</f>
-        <v>13.969277049569689</v>
+        <v>13.982054573507927</v>
       </c>
     </row>
   </sheetData>

--- a/חישובי דלק-2.xlsx
+++ b/חישובי דלק-2.xlsx
@@ -120,7 +120,7 @@
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="&quot;₪&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,9 +329,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$5:$B$53</c:f>
+              <c:f>Sheet1!$B$5:$B$54</c:f>
               <c:strCache>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>1/2/2017</c:v>
                 </c:pt>
@@ -478,16 +478,19 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>18/10/2018</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5/11/2018</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$5:$H$53</c:f>
+              <c:f>Sheet1!$H$5:$H$54</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>15.35</c:v>
                 </c:pt>
@@ -634,6 +637,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>14.595375722543352</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>14.591029023746703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -650,11 +656,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="67789568"/>
-        <c:axId val="67791104"/>
+        <c:axId val="186880768"/>
+        <c:axId val="186882304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="67789568"/>
+        <c:axId val="186880768"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -664,7 +670,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67791104"/>
+        <c:crossAx val="186882304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -672,7 +678,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67791104"/>
+        <c:axId val="186882304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -684,7 +690,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67789568"/>
+        <c:crossAx val="186880768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -742,8 +748,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:I54" totalsRowCount="1" headerRowDxfId="6">
-  <autoFilter ref="B4:I53"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:I55" totalsRowCount="1" headerRowDxfId="6">
+  <autoFilter ref="B4:I54"/>
   <tableColumns count="8">
     <tableColumn id="1" name="תאריך" totalsRowLabel="Total" dataDxfId="5"/>
     <tableColumn id="2" name="ק&quot;מ"/>
@@ -1017,7 +1023,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1025,13 +1031,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I54"/>
+  <dimension ref="B3:I55"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.42578125" style="5" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
@@ -1043,10 +1049,10 @@
     <col min="9" max="9" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="2:9" s="1" customFormat="1">
+    <row r="4" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1072,7 +1078,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="5">
         <v>42767</v>
       </c>
@@ -1093,7 +1099,7 @@
         <v>15.35</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="5">
         <v>42778</v>
       </c>
@@ -1115,7 +1121,7 @@
         <v>14.537403868562112</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
         <v>42789</v>
       </c>
@@ -1137,7 +1143,7 @@
         <v>13.519553072625699</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <v>42799</v>
       </c>
@@ -1159,7 +1165,7 @@
         <v>15.86466165413534</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>42810</v>
       </c>
@@ -1181,7 +1187,7 @@
         <v>14.200913242009133</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>42821</v>
       </c>
@@ -1203,7 +1209,7 @@
         <v>14.533333333333333</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>42831</v>
       </c>
@@ -1225,7 +1231,7 @@
         <v>15.532407407407407</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
         <v>42848</v>
       </c>
@@ -1247,7 +1253,7 @@
         <v>14.4874715261959</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
         <v>42858</v>
       </c>
@@ -1269,7 +1275,7 @@
         <v>14.369973190348526</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>42872</v>
       </c>
@@ -1296,7 +1302,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
         <v>42883</v>
       </c>
@@ -1318,7 +1324,7 @@
         <v>16.125907990314772</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
         <v>42863</v>
       </c>
@@ -1341,7 +1347,7 @@
         <v>14.96875</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
         <v>42907</v>
       </c>
@@ -1363,7 +1369,7 @@
         <v>13.804347826086957</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
         <v>42921</v>
       </c>
@@ -1385,7 +1391,7 @@
         <v>13.652849740932641</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
         <v>42935</v>
       </c>
@@ -1407,7 +1413,7 @@
         <v>12.956989247311826</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="5">
         <v>42947</v>
       </c>
@@ -1429,7 +1435,7 @@
         <v>13.470031545741325</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="5">
         <v>42960</v>
       </c>
@@ -1451,7 +1457,7 @@
         <v>13.951219512195122</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="5">
         <v>42963</v>
       </c>
@@ -1473,7 +1479,7 @@
         <v>13.544668587896252</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
         <v>42975</v>
       </c>
@@ -1495,7 +1501,7 @@
         <v>12.779097387173396</v>
       </c>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="5">
         <v>42989</v>
       </c>
@@ -1517,7 +1523,7 @@
         <v>13.631436314363144</v>
       </c>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="5">
         <v>43006</v>
       </c>
@@ -1542,7 +1548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:9">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="5">
         <v>43018</v>
       </c>
@@ -1564,7 +1570,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="27" spans="2:9">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="5">
         <v>43034</v>
       </c>
@@ -1586,7 +1592,7 @@
         <v>12.679738562091503</v>
       </c>
     </row>
-    <row r="28" spans="2:9">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="5">
         <v>43046</v>
       </c>
@@ -1608,7 +1614,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="2:9">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="5">
         <v>43060</v>
       </c>
@@ -1630,7 +1636,7 @@
         <v>13.814102564102564</v>
       </c>
     </row>
-    <row r="30" spans="2:9">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="5">
         <v>43073</v>
       </c>
@@ -1652,7 +1658,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="31" spans="2:9">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="5">
         <v>43088</v>
       </c>
@@ -1674,7 +1680,7 @@
         <v>13.110047846889954</v>
       </c>
     </row>
-    <row r="32" spans="2:9">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="5">
         <v>43097</v>
       </c>
@@ -1699,7 +1705,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="5">
         <v>43110</v>
       </c>
@@ -1724,7 +1730,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="5">
         <v>43123</v>
       </c>
@@ -1746,7 +1752,7 @@
         <v>13.273809523809524</v>
       </c>
     </row>
-    <row r="35" spans="2:9">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="5">
         <v>43135</v>
       </c>
@@ -1768,7 +1774,7 @@
         <v>13.492822966507179</v>
       </c>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="5">
         <v>43145</v>
       </c>
@@ -1790,7 +1796,7 @@
         <v>13.577235772357724</v>
       </c>
     </row>
-    <row r="37" spans="2:9">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="5">
         <v>43159</v>
       </c>
@@ -1812,7 +1818,7 @@
         <v>13.242127000516261</v>
       </c>
     </row>
-    <row r="38" spans="2:9">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="5">
         <v>43177</v>
       </c>
@@ -1837,7 +1843,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="5">
         <v>43193</v>
       </c>
@@ -1859,7 +1865,7 @@
         <v>13.766871165644172</v>
       </c>
     </row>
-    <row r="40" spans="2:9">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="5">
         <v>43212</v>
       </c>
@@ -1881,7 +1887,7 @@
         <v>12.454498179927198</v>
       </c>
     </row>
-    <row r="41" spans="2:9">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="5">
         <v>43229</v>
       </c>
@@ -1903,7 +1909,7 @@
         <v>13.913043478260869</v>
       </c>
     </row>
-    <row r="42" spans="2:9">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="5">
         <v>43244</v>
       </c>
@@ -1925,7 +1931,7 @@
         <v>14.572192513368984</v>
       </c>
     </row>
-    <row r="43" spans="2:9">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="5">
         <v>43262</v>
       </c>
@@ -1947,7 +1953,7 @@
         <v>14.85</v>
       </c>
     </row>
-    <row r="44" spans="2:9">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="5">
         <v>43279</v>
       </c>
@@ -1969,7 +1975,7 @@
         <v>14.64935064935065</v>
       </c>
     </row>
-    <row r="45" spans="2:9">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="5">
         <v>43289</v>
       </c>
@@ -1997,7 +2003,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="2:9">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="5">
         <v>43304</v>
       </c>
@@ -2026,7 +2032,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="2:9">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="5">
         <v>43313</v>
       </c>
@@ -2051,7 +2057,7 @@
         <v>13.194444444444445</v>
       </c>
     </row>
-    <row r="48" spans="2:9">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="5">
         <v>43320</v>
       </c>
@@ -2076,7 +2082,7 @@
         <v>13.382352941176471</v>
       </c>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="5">
         <v>43331</v>
       </c>
@@ -2101,7 +2107,7 @@
         <v>14.700239808153476</v>
       </c>
     </row>
-    <row r="50" spans="2:9">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="5">
         <v>43341</v>
       </c>
@@ -2129,7 +2135,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="2:9">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
         <v>23</v>
       </c>
@@ -2144,7 +2150,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="2:9">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="5">
         <v>43377</v>
       </c>
@@ -2168,7 +2174,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="2:9">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="5">
         <v>43391</v>
       </c>
@@ -2193,18 +2199,43 @@
         <v>14.595375722543352</v>
       </c>
     </row>
-    <row r="54" spans="2:9">
-      <c r="B54" t="s">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="5">
+        <v>43409</v>
+      </c>
+      <c r="C54">
+        <v>33257</v>
+      </c>
+      <c r="D54">
+        <v>37.9</v>
+      </c>
+      <c r="E54">
+        <v>6.69</v>
+      </c>
+      <c r="F54" s="11">
+        <v>253.5</v>
+      </c>
+      <c r="G54" s="13">
+        <f>(Table1[[#This Row],[כמות]]*0.5)</f>
+        <v>18.95</v>
+      </c>
+      <c r="H54" s="9">
+        <f>(C54-C53)/D54</f>
+        <v>14.591029023746703</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>17</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F55" s="11">
         <f>SUBTOTAL(109,Table1[מחיר כולל])</f>
-        <v>11413.76</v>
-      </c>
-      <c r="G54"/>
-      <c r="H54" s="9">
+        <v>11667.26</v>
+      </c>
+      <c r="G55"/>
+      <c r="H55" s="9">
         <f>SUBTOTAL(101,Table1[ק"מ לליטר (מחושב)])</f>
-        <v>13.982054573507927</v>
+        <v>13.994234062512703</v>
       </c>
     </row>
   </sheetData>
@@ -2225,13 +2256,13 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:4">
+    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>6</v>
       </c>
@@ -2239,7 +2270,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="3:4">
+    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>7</v>
       </c>
@@ -2247,7 +2278,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="4" spans="3:4">
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>1690</v>
       </c>
@@ -2255,7 +2286,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="5" spans="3:4">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>8</v>
       </c>
@@ -2263,7 +2294,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="3:4">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -2271,7 +2302,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="7" spans="3:4">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -2280,7 +2311,7 @@
         <v>1.7173553665790562</v>
       </c>
     </row>
-    <row r="8" spans="3:4">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>13</v>
       </c>
@@ -2289,7 +2320,7 @@
         <v>4799.3522198384289</v>
       </c>
     </row>
-    <row r="9" spans="3:4">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>10</v>
       </c>

--- a/חישובי דלק-2.xlsx
+++ b/חישובי דלק-2.xlsx
@@ -329,9 +329,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$5:$B$54</c:f>
+              <c:f>Sheet1!$B$5:$B$56</c:f>
               <c:strCache>
-                <c:ptCount val="50"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>1/2/2017</c:v>
                 </c:pt>
@@ -481,16 +481,22 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>5/11/2018</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>16/11/2018</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>27/11/2018</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$5:$H$54</c:f>
+              <c:f>Sheet1!$H$5:$H$56</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>15.35</c:v>
                 </c:pt>
@@ -640,6 +646,12 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>14.591029023746703</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14.731182795698924</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>15.384615384615383</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -656,11 +668,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="186880768"/>
-        <c:axId val="186882304"/>
+        <c:axId val="183866112"/>
+        <c:axId val="183867648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="186880768"/>
+        <c:axId val="183866112"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -670,7 +682,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186882304"/>
+        <c:crossAx val="183867648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -678,7 +690,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="186882304"/>
+        <c:axId val="183867648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -690,7 +702,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186880768"/>
+        <c:crossAx val="183866112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -748,8 +760,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:I55" totalsRowCount="1" headerRowDxfId="6">
-  <autoFilter ref="B4:I54"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:I57" totalsRowCount="1" headerRowDxfId="6">
+  <autoFilter ref="B4:I56"/>
   <tableColumns count="8">
     <tableColumn id="1" name="תאריך" totalsRowLabel="Total" dataDxfId="5"/>
     <tableColumn id="2" name="ק&quot;מ"/>
@@ -1023,7 +1035,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1031,10 +1043,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I55"/>
+  <dimension ref="B3:I57"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2225,17 +2237,67 @@
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+      <c r="B55" s="5">
+        <v>43420</v>
+      </c>
+      <c r="C55">
+        <v>33805</v>
+      </c>
+      <c r="D55">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="E55">
+        <v>6.69</v>
+      </c>
+      <c r="F55" s="11">
+        <v>249</v>
+      </c>
+      <c r="G55" s="13">
+        <f>(Table1[[#This Row],[כמות]]*0.5)</f>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="H55" s="9">
+        <f>(C55-C54)/D55</f>
+        <v>14.731182795698924</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="5">
+        <v>43431</v>
+      </c>
+      <c r="C56">
+        <v>34385</v>
+      </c>
+      <c r="D56">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="E56">
+        <v>6.69</v>
+      </c>
+      <c r="F56" s="11">
+        <v>252</v>
+      </c>
+      <c r="G56" s="13">
+        <f>(Table1[[#This Row],[כמות]]*0.5)</f>
+        <v>18.850000000000001</v>
+      </c>
+      <c r="H56" s="9">
+        <f>(C56-C55)/D56</f>
+        <v>15.384615384615383</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>17</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F57" s="11">
         <f>SUBTOTAL(109,Table1[מחיר כולל])</f>
-        <v>11667.26</v>
-      </c>
-      <c r="G55"/>
-      <c r="H55" s="9">
+        <v>12168.26</v>
+      </c>
+      <c r="G57"/>
+      <c r="H57" s="9">
         <f>SUBTOTAL(101,Table1[ק"מ לליטר (מחושב)])</f>
-        <v>13.994234062512703</v>
+        <v>14.035144255883644</v>
       </c>
     </row>
   </sheetData>

--- a/חישובי דלק-2.xlsx
+++ b/חישובי דלק-2.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>תאריך</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>מחיר לחודש אחרי הנחה 976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">לא הונפקה קבלה. </t>
   </si>
 </sst>
 </file>
@@ -329,9 +332,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$5:$B$56</c:f>
+              <c:f>Sheet1!$B$5:$B$57</c:f>
               <c:strCache>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>1/2/2017</c:v>
                 </c:pt>
@@ -487,16 +490,19 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>27/11/2018</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10/12/2018</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$5:$H$56</c:f>
+              <c:f>Sheet1!$H$5:$H$57</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>15.35</c:v>
                 </c:pt>
@@ -652,6 +658,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>15.384615384615383</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>12.925000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -668,11 +677,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="183866112"/>
-        <c:axId val="183867648"/>
+        <c:axId val="225481088"/>
+        <c:axId val="225482624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="183866112"/>
+        <c:axId val="225481088"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -682,7 +691,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183867648"/>
+        <c:crossAx val="225482624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -690,7 +699,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183867648"/>
+        <c:axId val="225482624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -702,7 +711,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183866112"/>
+        <c:crossAx val="225481088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -760,8 +769,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:I57" totalsRowCount="1" headerRowDxfId="6">
-  <autoFilter ref="B4:I56"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:I58" totalsRowCount="1" headerRowDxfId="6">
+  <autoFilter ref="B4:I57"/>
   <tableColumns count="8">
     <tableColumn id="1" name="תאריך" totalsRowLabel="Total" dataDxfId="5"/>
     <tableColumn id="2" name="ק&quot;מ"/>
@@ -1035,7 +1044,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1043,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I57"/>
+  <dimension ref="B3:I58"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2287,17 +2296,45 @@
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+      <c r="B57" s="5">
+        <v>43444</v>
+      </c>
+      <c r="C57">
+        <v>34902</v>
+      </c>
+      <c r="D57">
+        <v>40</v>
+      </c>
+      <c r="E57">
+        <v>6.22</v>
+      </c>
+      <c r="F57" s="11">
+        <v>248</v>
+      </c>
+      <c r="G57" s="13">
+        <f>(Table1[[#This Row],[כמות]]*0.5)</f>
+        <v>20</v>
+      </c>
+      <c r="H57" s="9">
+        <f>(C57-C56)/D57</f>
+        <v>12.925000000000001</v>
+      </c>
+      <c r="I57" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>17</v>
       </c>
-      <c r="F57" s="11">
+      <c r="F58" s="11">
         <f>SUBTOTAL(109,Table1[מחיר כולל])</f>
-        <v>12168.26</v>
-      </c>
-      <c r="G57"/>
-      <c r="H57" s="9">
+        <v>12416.26</v>
+      </c>
+      <c r="G58"/>
+      <c r="H58" s="9">
         <f>SUBTOTAL(101,Table1[ק"מ לליטר (מחושב)])</f>
-        <v>14.035144255883644</v>
+        <v>14.014198137848101</v>
       </c>
     </row>
   </sheetData>

--- a/חישובי דלק-2.xlsx
+++ b/חישובי דלק-2.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>תאריך</t>
   </si>
@@ -75,9 +75,6 @@
     <t>כנראה נתון שגוי</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -96,19 +93,19 @@
     <t>פזומט 6.7 228.5</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>הנחה</t>
   </si>
   <si>
-    <t>בערך 38 ליטר. לפי 6.8. (הקבלה אבדה)</t>
-  </si>
-  <si>
-    <t>מחיר לחודש אחרי הנחה 976</t>
-  </si>
-  <si>
     <t xml:space="preserve">לא הונפקה קבלה. </t>
+  </si>
+  <si>
+    <t>הערות</t>
+  </si>
+  <si>
+    <t>חיוב לפי אתר פנימי</t>
+  </si>
+  <si>
+    <t>שיחזור, לפי נתוני האתר.</t>
   </si>
 </sst>
 </file>
@@ -228,7 +225,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
@@ -237,6 +234,9 @@
           <bgColor theme="9" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;₪&quot;\ #,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="&quot;₪&quot;\ #,##0.00"/>
@@ -331,178 +331,182 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$5:$B$57</c:f>
-              <c:strCache>
-                <c:ptCount val="53"/>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$B$58</c:f>
+              <c:numCache>
+                <c:formatCode>[$-1010000]d/m/yyyy;@</c:formatCode>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
-                  <c:v>1/2/2017</c:v>
+                  <c:v>42767</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12/2/2017</c:v>
+                  <c:v>42778</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23/2/2017</c:v>
+                  <c:v>42789</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5/3/2017</c:v>
+                  <c:v>42799</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16/3/2017</c:v>
+                  <c:v>42810</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27/3/2017</c:v>
+                  <c:v>42821</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6/4/2017</c:v>
+                  <c:v>42831</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23/4/2017</c:v>
+                  <c:v>42848</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3/5/2017</c:v>
+                  <c:v>42858</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17/5/2017</c:v>
+                  <c:v>42872</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28/5/2017</c:v>
+                  <c:v>42883</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8/5/2017</c:v>
+                  <c:v>42863</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21/6/2017</c:v>
+                  <c:v>42907</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5/7/2017</c:v>
+                  <c:v>42921</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19/7/2017</c:v>
+                  <c:v>42935</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>31/7/2017</c:v>
+                  <c:v>42947</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13/8/2017</c:v>
+                  <c:v>42960</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>16/8/2017</c:v>
+                  <c:v>42963</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>28/8/2017</c:v>
+                  <c:v>42975</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11/9/2017</c:v>
+                  <c:v>42989</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>28/9/2017</c:v>
+                  <c:v>43006</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10/10/2017</c:v>
+                  <c:v>43018</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>26/10/2017</c:v>
+                  <c:v>43034</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7/11/2017</c:v>
+                  <c:v>43046</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>21/11/2017</c:v>
+                  <c:v>43060</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4/12/2017</c:v>
+                  <c:v>43073</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>19/12/2017</c:v>
+                  <c:v>43088</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28/12/2017</c:v>
+                  <c:v>43097</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10/1/2018</c:v>
+                  <c:v>43110</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>23/1/2018</c:v>
+                  <c:v>43123</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4/2/2018</c:v>
+                  <c:v>43135</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>14/2/2018</c:v>
+                  <c:v>43145</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>28/2/2018</c:v>
+                  <c:v>43159</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>18/3/2018</c:v>
+                  <c:v>43177</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3/4/2018</c:v>
+                  <c:v>43193</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>22/4/2018</c:v>
+                  <c:v>43212</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9/5/2018</c:v>
+                  <c:v>43229</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>24/5/2018</c:v>
+                  <c:v>43244</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>11/6/2018</c:v>
+                  <c:v>43262</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>28/6/2018</c:v>
+                  <c:v>43279</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>8/7/2018</c:v>
+                  <c:v>43289</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>23/7/2018</c:v>
+                  <c:v>43304</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1/8/2018</c:v>
+                  <c:v>43313</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>8/8/2018</c:v>
+                  <c:v>43320</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>19/8/2018</c:v>
+                  <c:v>43331</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>29/8/2018</c:v>
+                  <c:v>43341</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>?</c:v>
+                  <c:v>43356</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4/10/2018</c:v>
+                  <c:v>43377</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>18/10/2018</c:v>
+                  <c:v>43391</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5/11/2018</c:v>
+                  <c:v>43409</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>16/11/2018</c:v>
+                  <c:v>43420</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>27/11/2018</c:v>
+                  <c:v>43431</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>10/12/2018</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>43444</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43458</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$5:$H$57</c:f>
+              <c:f>Sheet1!$H$5:$H$58</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>15.35</c:v>
                 </c:pt>
@@ -661,6 +665,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>12.925000000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>14.756756756756756</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -677,11 +684,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="225481088"/>
-        <c:axId val="225482624"/>
+        <c:axId val="238920064"/>
+        <c:axId val="238921600"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="225481088"/>
+      <c:dateAx>
+        <c:axId val="238920064"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -691,15 +698,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="225482624"/>
+        <c:crossAx val="238921600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="225482624"/>
+        <c:axId val="238921600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -711,7 +717,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="225481088"/>
+        <c:crossAx val="238920064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -737,16 +743,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -769,21 +775,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:I58" totalsRowCount="1" headerRowDxfId="6">
-  <autoFilter ref="B4:I57"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="תאריך" totalsRowLabel="Total" dataDxfId="5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:J59" totalsRowCount="1" headerRowDxfId="7">
+  <autoFilter ref="B4:J58"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="תאריך" totalsRowLabel="Total" dataDxfId="6"/>
     <tableColumn id="2" name="ק&quot;מ"/>
     <tableColumn id="3" name="כמות"/>
     <tableColumn id="4" name="מחיר"/>
-    <tableColumn id="5" name="מחיר כולל" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="1"/>
-    <tableColumn id="8" name="הנחה" dataDxfId="3">
+    <tableColumn id="5" name="מחיר כולל" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="1"/>
+    <tableColumn id="8" name="הנחה" dataDxfId="4">
       <calculatedColumnFormula>(Table1[[#This Row],[כמות]]*0.5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="ק&quot;מ לליטר (מחושב)" totalsRowFunction="average" dataDxfId="2" totalsRowDxfId="0">
+    <tableColumn id="6" name="ק&quot;מ לליטר (מחושב)" totalsRowFunction="average" dataDxfId="3" totalsRowDxfId="0">
       <calculatedColumnFormula>(C5-C4)/D5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Column1"/>
+    <tableColumn id="7" name="הערות"/>
+    <tableColumn id="9" name="חיוב לפי אתר פנימי" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1044,7 +1051,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1052,10 +1059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I58"/>
+  <dimension ref="B3:J59"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="E15" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,12 +1075,13 @@
     <col min="7" max="7" width="12.42578125" style="6" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" customWidth="1"/>
     <col min="9" max="9" width="23.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1090,16 +1098,19 @@
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="5">
         <v>42767</v>
       </c>
@@ -1119,8 +1130,9 @@
       <c r="H5" s="8">
         <v>15.35</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="5">
         <v>42778</v>
       </c>
@@ -1141,8 +1153,9 @@
         <f t="shared" ref="H6:H14" si="0">(C6-C5)/D6</f>
         <v>14.537403868562112</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
         <v>42789</v>
       </c>
@@ -1163,8 +1176,9 @@
         <f t="shared" si="0"/>
         <v>13.519553072625699</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <v>42799</v>
       </c>
@@ -1185,8 +1199,9 @@
         <f t="shared" si="0"/>
         <v>15.86466165413534</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>42810</v>
       </c>
@@ -1207,8 +1222,9 @@
         <f t="shared" si="0"/>
         <v>14.200913242009133</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>42821</v>
       </c>
@@ -1229,8 +1245,9 @@
         <f t="shared" si="0"/>
         <v>14.533333333333333</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>42831</v>
       </c>
@@ -1251,8 +1268,9 @@
         <f t="shared" si="0"/>
         <v>15.532407407407407</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
         <v>42848</v>
       </c>
@@ -1273,8 +1291,9 @@
         <f t="shared" si="0"/>
         <v>14.4874715261959</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
         <v>42858</v>
       </c>
@@ -1295,8 +1314,9 @@
         <f t="shared" si="0"/>
         <v>14.369973190348526</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>42872</v>
       </c>
@@ -1322,8 +1342,9 @@
       <c r="I14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
         <v>42883</v>
       </c>
@@ -1344,8 +1365,9 @@
         <f t="shared" ref="H15:H32" si="1">(C15-C14)/D15</f>
         <v>16.125907990314772</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
         <v>42863</v>
       </c>
@@ -1367,8 +1389,9 @@
         <f t="shared" si="1"/>
         <v>14.96875</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
         <v>42907</v>
       </c>
@@ -1389,8 +1412,9 @@
         <f t="shared" si="1"/>
         <v>13.804347826086957</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
         <v>42921</v>
       </c>
@@ -1411,8 +1435,9 @@
         <f t="shared" si="1"/>
         <v>13.652849740932641</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
         <v>42935</v>
       </c>
@@ -1433,8 +1458,9 @@
         <f t="shared" si="1"/>
         <v>12.956989247311826</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="5">
         <v>42947</v>
       </c>
@@ -1455,8 +1481,9 @@
         <f t="shared" si="1"/>
         <v>13.470031545741325</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="5">
         <v>42960</v>
       </c>
@@ -1477,8 +1504,9 @@
         <f t="shared" si="1"/>
         <v>13.951219512195122</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="5">
         <v>42963</v>
       </c>
@@ -1499,8 +1527,9 @@
         <f t="shared" si="1"/>
         <v>13.544668587896252</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
         <v>42975</v>
       </c>
@@ -1521,8 +1550,9 @@
         <f t="shared" si="1"/>
         <v>12.779097387173396</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="5">
         <v>42989</v>
       </c>
@@ -1543,8 +1573,9 @@
         <f t="shared" si="1"/>
         <v>13.631436314363144</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="5">
         <v>43006</v>
       </c>
@@ -1568,8 +1599,9 @@
       <c r="I25" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="11"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="5">
         <v>43018</v>
       </c>
@@ -1590,8 +1622,9 @@
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="11"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="5">
         <v>43034</v>
       </c>
@@ -1612,8 +1645,9 @@
         <f t="shared" si="1"/>
         <v>12.679738562091503</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="11"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="5">
         <v>43046</v>
       </c>
@@ -1634,8 +1668,9 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="11"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="5">
         <v>43060</v>
       </c>
@@ -1656,8 +1691,9 @@
         <f t="shared" si="1"/>
         <v>13.814102564102564</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="11"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="5">
         <v>43073</v>
       </c>
@@ -1678,8 +1714,9 @@
         <f t="shared" si="1"/>
         <v>13.6</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="11"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="5">
         <v>43088</v>
       </c>
@@ -1700,8 +1737,9 @@
         <f t="shared" si="1"/>
         <v>13.110047846889954</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="11"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="5">
         <v>43097</v>
       </c>
@@ -1725,8 +1763,9 @@
       <c r="I32" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="11"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="5">
         <v>43110</v>
       </c>
@@ -1748,10 +1787,11 @@
         <v>17.160120845921451</v>
       </c>
       <c r="I33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J33" s="11"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="5">
         <v>43123</v>
       </c>
@@ -1772,8 +1812,9 @@
         <f t="shared" si="2"/>
         <v>13.273809523809524</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="11"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="5">
         <v>43135</v>
       </c>
@@ -1794,8 +1835,9 @@
         <f t="shared" si="2"/>
         <v>13.492822966507179</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="11"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="5">
         <v>43145</v>
       </c>
@@ -1816,8 +1858,9 @@
         <f t="shared" si="2"/>
         <v>13.577235772357724</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="11"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="5">
         <v>43159</v>
       </c>
@@ -1838,8 +1881,9 @@
         <f t="shared" si="2"/>
         <v>13.242127000516261</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="11"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="5">
         <v>43177</v>
       </c>
@@ -1861,10 +1905,11 @@
         <v>11.796610169491526</v>
       </c>
       <c r="I38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="J38" s="11"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="5">
         <v>43193</v>
       </c>
@@ -1885,8 +1930,9 @@
         <f t="shared" ref="H39:H44" si="3">(C39-C38)/D39</f>
         <v>13.766871165644172</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="11"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="5">
         <v>43212</v>
       </c>
@@ -1907,8 +1953,9 @@
         <f t="shared" si="3"/>
         <v>12.454498179927198</v>
       </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="11"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="5">
         <v>43229</v>
       </c>
@@ -1929,8 +1976,9 @@
         <f t="shared" si="3"/>
         <v>13.913043478260869</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="11"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="5">
         <v>43244</v>
       </c>
@@ -1951,8 +1999,9 @@
         <f t="shared" si="3"/>
         <v>14.572192513368984</v>
       </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="11"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="5">
         <v>43262</v>
       </c>
@@ -1973,8 +2022,9 @@
         <f t="shared" si="3"/>
         <v>14.85</v>
       </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="11"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="5">
         <v>43279</v>
       </c>
@@ -1995,8 +2045,9 @@
         <f t="shared" si="3"/>
         <v>14.64935064935065</v>
       </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="11"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="5">
         <v>43289</v>
       </c>
@@ -2021,10 +2072,11 @@
         <v>14.662756598240469</v>
       </c>
       <c r="I45" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="J45" s="11"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="5">
         <v>43304</v>
       </c>
@@ -2050,10 +2102,11 @@
         <v>14.272445820433438</v>
       </c>
       <c r="I46" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="J46" s="11"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="5">
         <v>43313</v>
       </c>
@@ -2077,8 +2130,9 @@
         <f t="shared" si="4"/>
         <v>13.194444444444445</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="11"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="5">
         <v>43320</v>
       </c>
@@ -2102,8 +2156,9 @@
         <f t="shared" si="4"/>
         <v>13.382352941176471</v>
       </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="11"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="5">
         <v>43331</v>
       </c>
@@ -2127,8 +2182,9 @@
         <f t="shared" si="4"/>
         <v>14.700239808153476</v>
       </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="11"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="5">
         <v>43341</v>
       </c>
@@ -2152,26 +2208,38 @@
         <f t="shared" si="4"/>
         <v>15.149863760217983</v>
       </c>
-      <c r="I50" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="5" t="s">
-        <v>23</v>
+      <c r="J50" s="11">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="5">
+        <v>43356</v>
+      </c>
+      <c r="D51">
+        <v>35.1</v>
+      </c>
+      <c r="E51">
+        <v>6.8</v>
+      </c>
+      <c r="F51" s="11">
+        <v>238.6</v>
       </c>
       <c r="G51" s="11">
         <f>(Table1[[#This Row],[כמות]]*0.5)</f>
-        <v>0</v>
+        <v>17.55</v>
       </c>
       <c r="H51" s="10">
         <v>14</v>
       </c>
       <c r="I51" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="J51" s="11">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="5">
         <v>43377</v>
       </c>
@@ -2194,8 +2262,9 @@
       <c r="H52" s="8">
         <v>14</v>
       </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="11"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="5">
         <v>43391</v>
       </c>
@@ -2219,8 +2288,11 @@
         <f>(C53-C52)/D53</f>
         <v>14.595375722543352</v>
       </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="11">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="5">
         <v>43409</v>
       </c>
@@ -2244,8 +2316,9 @@
         <f>(C54-C53)/D54</f>
         <v>14.591029023746703</v>
       </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="11"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="5">
         <v>43420</v>
       </c>
@@ -2269,8 +2342,9 @@
         <f>(C55-C54)/D55</f>
         <v>14.731182795698924</v>
       </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="11"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="5">
         <v>43431</v>
       </c>
@@ -2294,8 +2368,11 @@
         <f>(C56-C55)/D56</f>
         <v>15.384615384615383</v>
       </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J56" s="11">
+        <v>697.89</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" s="5">
         <v>43444</v>
       </c>
@@ -2320,21 +2397,48 @@
         <v>12.925000000000001</v>
       </c>
       <c r="I57" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="J57" s="11"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="5">
+        <v>43458</v>
+      </c>
+      <c r="C58">
+        <v>35448</v>
+      </c>
+      <c r="D58">
+        <v>37</v>
+      </c>
+      <c r="E58">
+        <v>6.22</v>
       </c>
       <c r="F58" s="11">
+        <v>230.7</v>
+      </c>
+      <c r="G58" s="13">
+        <f>(Table1[[#This Row],[כמות]]*0.5)</f>
+        <v>18.5</v>
+      </c>
+      <c r="H58" s="9">
+        <f>(C58-C57)/D58</f>
+        <v>14.756756756756756</v>
+      </c>
+      <c r="J58" s="11"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" s="11">
         <f>SUBTOTAL(109,Table1[מחיר כולל])</f>
-        <v>12416.26</v>
-      </c>
-      <c r="G58"/>
-      <c r="H58" s="9">
+        <v>12885.560000000001</v>
+      </c>
+      <c r="G59"/>
+      <c r="H59" s="9">
         <f>SUBTOTAL(101,Table1[ק"מ לליטר (מחושב)])</f>
-        <v>14.014198137848101</v>
+        <v>14.027949223383448</v>
       </c>
     </row>
   </sheetData>
